--- a/Testing/SprintI/TestPlanS.xlsx
+++ b/Testing/SprintI/TestPlanS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yohana Zapata\OneDrive\Desktop\DIGH\ESPECIALIZACION BACK\PI\Testing\SprintI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yohana Zapata\OneDrive\Desktop\DIGH\ESPECIALIZACION BACK\PI\ecommerce-equipo4\Testing\SprintI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8EC41E-E39D-4A62-AD9B-594C51C859D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB391975-37EA-488D-A711-100AD89F8787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{EF7542FF-657D-473E-8093-CC42149EF0AF}"/>
   </bookViews>
@@ -862,9 +862,6 @@
     <t>bloque de imágenes al 100 % del ancho del contenedor que incluye 5 imágenes.</t>
   </si>
   <si>
-    <t>Debe incluir en su región inferior derecha el texto “Ver Más”, el cual, permitirá acceder a un componente de galería de imágenes para ver todas las imágenes disponibles del producto.</t>
-  </si>
-  <si>
     <t>Debe existir una base de datos de categorías con al menos 5 categorías diferentes, cada una con una imagen asociada.</t>
   </si>
   <si>
@@ -881,6 +878,9 @@
   </si>
   <si>
     <t>Se visualiza el texto " Ver mas"</t>
+  </si>
+  <si>
+    <t>Debe incluir en su región inferior derecha el texto “Ver Más”, el cual, permitirá acceder a un componente de galería de imágenes para ver todas las imágenes disponibles del producto,</t>
   </si>
 </sst>
 </file>
@@ -1813,24 +1813,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1843,10 +1825,22 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1856,6 +1850,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1885,125 +1888,6 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2022,8 +1906,13 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2034,8 +1923,119 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2354,7 +2354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1550FB1C-F240-400E-8D6A-47EBB90EFC8A}">
   <dimension ref="A1:R1523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
@@ -2456,552 +2456,552 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="81" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="85" t="s">
         <v>210</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81" t="s">
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85" t="s">
         <v>211</v>
       </c>
-      <c r="H7" s="81" t="s">
+      <c r="H7" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="81" t="s">
+      <c r="I7" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="81" t="s">
+      <c r="J7" s="85" t="s">
         <v>213</v>
       </c>
-      <c r="K7" s="81" t="s">
+      <c r="K7" s="85" t="s">
         <v>212</v>
       </c>
-      <c r="L7" s="81" t="s">
+      <c r="L7" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="81" t="s">
+      <c r="M7" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="86" t="s">
+      <c r="N7" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="80"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="87"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="84"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="80"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="87"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="84"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="80"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="87"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="84"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="80"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="87"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="84"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="80"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="87"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="84"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="80"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="87"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="84"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="80"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="82" t="s">
+      <c r="A14" s="91"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="76" t="s">
         <v>214</v>
       </c>
-      <c r="E14" s="83"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82" t="s">
+      <c r="E14" s="77"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76" t="s">
         <v>216</v>
       </c>
-      <c r="H14" s="82" t="s">
+      <c r="H14" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="82" t="s">
+      <c r="I14" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="82" t="s">
+      <c r="J14" s="76" t="s">
         <v>217</v>
       </c>
-      <c r="K14" s="82" t="s">
+      <c r="K14" s="76" t="s">
         <v>218</v>
       </c>
-      <c r="L14" s="82" t="s">
+      <c r="L14" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="82" t="s">
+      <c r="M14" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="87" t="s">
+      <c r="N14" s="84" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="80"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="87"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="84"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="80"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="87"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="84"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="80"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="87"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="84"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="80"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="87"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="84"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="80"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="87"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="84"/>
     </row>
     <row r="20" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="80"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="87"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="84"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="80"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="81" t="s">
+      <c r="A21" s="91"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="82" t="s">
+      <c r="D21" s="76" t="s">
         <v>215</v>
       </c>
-      <c r="E21" s="83"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82" t="s">
+      <c r="E21" s="77"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76" t="s">
         <v>219</v>
       </c>
-      <c r="H21" s="82" t="s">
+      <c r="H21" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="82" t="s">
+      <c r="I21" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="82" t="s">
+      <c r="J21" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="K21" s="82" t="s">
+      <c r="K21" s="76" t="s">
         <v>221</v>
       </c>
-      <c r="L21" s="82" t="s">
+      <c r="L21" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="82" t="s">
+      <c r="M21" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="N21" s="87" t="s">
+      <c r="N21" s="84" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="80"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="87"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="84"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="80"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="87"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="84"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="80"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="87"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="84"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="80"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="87"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="84"/>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="80"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="87"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="84"/>
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="80"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="87"/>
+      <c r="A27" s="91"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="84"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="80"/>
-      <c r="B28" s="153" t="s">
+      <c r="A28" s="91"/>
+      <c r="B28" s="89" t="s">
         <v>222</v>
       </c>
-      <c r="C28" s="82" t="s">
+      <c r="C28" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="76" t="s">
+      <c r="D28" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76" t="s">
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80" t="s">
+        <v>224</v>
+      </c>
+      <c r="H28" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="80" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="76" t="s">
+      <c r="K28" s="80" t="s">
         <v>226</v>
       </c>
-      <c r="K28" s="76" t="s">
-        <v>227</v>
-      </c>
-      <c r="L28" s="76" t="s">
+      <c r="L28" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="M28" s="76" t="s">
+      <c r="M28" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="N28" s="88" t="s">
+      <c r="N28" s="86" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="80"/>
-      <c r="B29" s="153"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="89"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="87"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="80"/>
-      <c r="B30" s="153"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="89"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="87"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="80"/>
-      <c r="B31" s="153"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="89"/>
+      <c r="A31" s="91"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="87"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="80"/>
-      <c r="B32" s="153"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="89"/>
+      <c r="A32" s="91"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="87"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A33" s="80"/>
-      <c r="B33" s="153"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="89"/>
+      <c r="A33" s="91"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="87"/>
     </row>
     <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="80"/>
-      <c r="B34" s="153"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="90"/>
+      <c r="A34" s="91"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="88"/>
     </row>
     <row r="35" spans="1:18" ht="78.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="80"/>
-      <c r="B35" s="153"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="89"/>
       <c r="C35" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>22</v>
@@ -3010,10 +3010,10 @@
         <v>23</v>
       </c>
       <c r="J35" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="K35" s="10" t="s">
         <v>229</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>230</v>
       </c>
       <c r="L35" s="10" t="s">
         <v>24</v>
@@ -26831,38 +26831,17 @@
   </sheetData>
   <autoFilter ref="A6:AF51" xr:uid="{1550FB1C-F240-400E-8D6A-47EBB90EFC8A}"/>
   <mergeCells count="51">
-    <mergeCell ref="I21:I27"/>
-    <mergeCell ref="J21:J27"/>
-    <mergeCell ref="K21:K27"/>
-    <mergeCell ref="L21:L27"/>
-    <mergeCell ref="M21:M27"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="F21:F27"/>
-    <mergeCell ref="G21:G27"/>
-    <mergeCell ref="H21:H27"/>
-    <mergeCell ref="H28:H34"/>
-    <mergeCell ref="I28:I34"/>
-    <mergeCell ref="J28:J34"/>
-    <mergeCell ref="K28:K34"/>
-    <mergeCell ref="L28:L34"/>
-    <mergeCell ref="N7:N13"/>
-    <mergeCell ref="M14:M20"/>
-    <mergeCell ref="N14:N20"/>
-    <mergeCell ref="M7:M13"/>
-    <mergeCell ref="M28:M34"/>
-    <mergeCell ref="N28:N34"/>
-    <mergeCell ref="N21:N27"/>
-    <mergeCell ref="H14:H20"/>
-    <mergeCell ref="I14:I20"/>
-    <mergeCell ref="J14:J20"/>
-    <mergeCell ref="K14:K20"/>
-    <mergeCell ref="L14:L20"/>
-    <mergeCell ref="H7:H13"/>
-    <mergeCell ref="I7:I13"/>
-    <mergeCell ref="J7:J13"/>
-    <mergeCell ref="K7:K13"/>
-    <mergeCell ref="L7:L13"/>
+    <mergeCell ref="B7:B27"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="A7:A35"/>
+    <mergeCell ref="D28:D34"/>
+    <mergeCell ref="E28:E34"/>
+    <mergeCell ref="F28:F34"/>
+    <mergeCell ref="G28:G34"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="C21:C27"/>
     <mergeCell ref="D7:D13"/>
     <mergeCell ref="E7:E13"/>
     <mergeCell ref="F7:F13"/>
@@ -26871,17 +26850,38 @@
     <mergeCell ref="E14:E20"/>
     <mergeCell ref="F14:F20"/>
     <mergeCell ref="G14:G20"/>
-    <mergeCell ref="D28:D34"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="F28:F34"/>
-    <mergeCell ref="G28:G34"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="C14:C20"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="B7:B27"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="A7:A35"/>
+    <mergeCell ref="H7:H13"/>
+    <mergeCell ref="I7:I13"/>
+    <mergeCell ref="J7:J13"/>
+    <mergeCell ref="K7:K13"/>
+    <mergeCell ref="L7:L13"/>
+    <mergeCell ref="H14:H20"/>
+    <mergeCell ref="I14:I20"/>
+    <mergeCell ref="J14:J20"/>
+    <mergeCell ref="K14:K20"/>
+    <mergeCell ref="L14:L20"/>
+    <mergeCell ref="N7:N13"/>
+    <mergeCell ref="M14:M20"/>
+    <mergeCell ref="N14:N20"/>
+    <mergeCell ref="M7:M13"/>
+    <mergeCell ref="M28:M34"/>
+    <mergeCell ref="N28:N34"/>
+    <mergeCell ref="N21:N27"/>
+    <mergeCell ref="H28:H34"/>
+    <mergeCell ref="I28:I34"/>
+    <mergeCell ref="J28:J34"/>
+    <mergeCell ref="K28:K34"/>
+    <mergeCell ref="L28:L34"/>
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="F21:F27"/>
+    <mergeCell ref="G21:G27"/>
+    <mergeCell ref="H21:H27"/>
+    <mergeCell ref="I21:I27"/>
+    <mergeCell ref="J21:J27"/>
+    <mergeCell ref="K21:K27"/>
+    <mergeCell ref="L21:L27"/>
+    <mergeCell ref="M21:M27"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
@@ -27006,10 +27006,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="112.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="95" t="s">
         <v>72</v>
       </c>
       <c r="C7" s="65" t="s">
@@ -27048,8 +27048,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="112.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="98"/>
-      <c r="B8" s="95"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="65" t="s">
         <v>102</v>
       </c>
@@ -27086,8 +27086,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="112.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="98"/>
-      <c r="B9" s="95"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="65" t="s">
         <v>103</v>
       </c>
@@ -27124,8 +27124,8 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="112.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="98"/>
-      <c r="B10" s="95"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="65" t="s">
         <v>104</v>
       </c>
@@ -27162,8 +27162,8 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="112.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="98"/>
-      <c r="B11" s="95"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="65" t="s">
         <v>105</v>
       </c>
@@ -27200,8 +27200,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="112.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="98"/>
-      <c r="B12" s="95"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="65" t="s">
         <v>106</v>
       </c>
@@ -27238,8 +27238,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="100" x14ac:dyDescent="0.35">
-      <c r="A13" s="98"/>
-      <c r="B13" s="95"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="65" t="s">
         <v>107</v>
       </c>
@@ -27274,8 +27274,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="126.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="98"/>
-      <c r="B14" s="96"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="65" t="s">
         <v>108</v>
       </c>
@@ -27312,8 +27312,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="137.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="98"/>
-      <c r="B15" s="94" t="s">
+      <c r="A15" s="99"/>
+      <c r="B15" s="95" t="s">
         <v>109</v>
       </c>
       <c r="C15" s="65" t="s">
@@ -27354,8 +27354,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="98"/>
-      <c r="B16" s="95"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="65" t="s">
         <v>139</v>
       </c>
@@ -27394,8 +27394,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="98"/>
-      <c r="B17" s="95"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="65" t="s">
         <v>140</v>
       </c>
@@ -27434,8 +27434,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="98"/>
-      <c r="B18" s="95"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="65" t="s">
         <v>141</v>
       </c>
@@ -27474,8 +27474,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="91" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="98"/>
-      <c r="B19" s="95"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="65" t="s">
         <v>142</v>
       </c>
@@ -27514,8 +27514,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="100" x14ac:dyDescent="0.35">
-      <c r="A20" s="98"/>
-      <c r="B20" s="95"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="65" t="s">
         <v>143</v>
       </c>
@@ -27550,8 +27550,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="195" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="98"/>
-      <c r="B21" s="96"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="97"/>
       <c r="C21" s="65" t="s">
         <v>144</v>
       </c>
@@ -27588,7 +27588,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="91" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="98"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="66" t="s">
         <v>145</v>
       </c>
@@ -27630,8 +27630,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="99"/>
-      <c r="B23" s="94" t="s">
+      <c r="A23" s="100"/>
+      <c r="B23" s="95" t="s">
         <v>156</v>
       </c>
       <c r="C23" s="66" t="s">
@@ -27672,10 +27672,10 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="169" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="91" t="s">
+      <c r="A24" s="92" t="s">
         <v>207</v>
       </c>
-      <c r="B24" s="96"/>
+      <c r="B24" s="97"/>
       <c r="C24" s="66" t="s">
         <v>148</v>
       </c>
@@ -27714,7 +27714,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="351" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="92"/>
+      <c r="A25" s="93"/>
       <c r="B25" s="66" t="s">
         <v>167</v>
       </c>
@@ -27756,7 +27756,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="75" x14ac:dyDescent="0.35">
-      <c r="A26" s="93"/>
+      <c r="A26" s="94"/>
       <c r="B26" s="66" t="s">
         <v>173</v>
       </c>
@@ -28212,8 +28212,8 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
       <c r="E2" s="43"/>
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
@@ -28224,22 +28224,22 @@
       <c r="L2" s="43"/>
     </row>
     <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="146"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="106"/>
     </row>
     <row r="4" spans="3:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="147"/>
-      <c r="D4" s="148"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="55"/>
       <c r="F4" s="55"/>
       <c r="G4" s="55"/>
@@ -28276,8 +28276,8 @@
       <c r="L6" s="47"/>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C7" s="127"/>
-      <c r="D7" s="128"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="110"/>
       <c r="E7" s="54"/>
       <c r="F7" s="54"/>
       <c r="G7" s="54"/>
@@ -28305,19 +28305,19 @@
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C9" s="45"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="149"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
       <c r="J9" s="43"/>
       <c r="K9" s="49"/>
       <c r="L9" s="47"/>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C10" s="127"/>
-      <c r="D10" s="128"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="110"/>
       <c r="E10" s="54"/>
       <c r="F10" s="54"/>
       <c r="G10" s="54"/>
@@ -28329,71 +28329,71 @@
     </row>
     <row r="11" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C11" s="45"/>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
       <c r="L11" s="47"/>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C12" s="45"/>
-      <c r="D12" s="150" t="s">
+      <c r="D12" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="150"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
       <c r="L12" s="47"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C13" s="45"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="150"/>
-      <c r="I13" s="150"/>
-      <c r="J13" s="150"/>
-      <c r="K13" s="150"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
       <c r="L13" s="47"/>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C14" s="45"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="150"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="150"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
       <c r="L14" s="47"/>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C15" s="45"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="150"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="150"/>
-      <c r="K15" s="150"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
       <c r="L15" s="47"/>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C16" s="127"/>
-      <c r="D16" s="128"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="110"/>
       <c r="E16" s="54"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -28423,11 +28423,11 @@
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C18" s="45"/>
-      <c r="D18" s="151" t="s">
+      <c r="D18" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
       <c r="G18" s="54"/>
       <c r="H18" s="57"/>
       <c r="I18" s="50"/>
@@ -28436,8 +28436,8 @@
       <c r="L18" s="47"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="127"/>
-      <c r="D19" s="128"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="110"/>
       <c r="E19" s="54"/>
       <c r="F19" s="54"/>
       <c r="G19" s="54"/>
@@ -28467,11 +28467,11 @@
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C21" s="45"/>
-      <c r="D21" s="141" t="s">
+      <c r="D21" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
       <c r="G21" s="54"/>
       <c r="H21" s="57"/>
       <c r="I21" s="50"/>
@@ -28480,8 +28480,8 @@
       <c r="L21" s="47"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="127"/>
-      <c r="D22" s="128"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="110"/>
       <c r="E22" s="54"/>
       <c r="F22" s="54"/>
       <c r="G22" s="54"/>
@@ -28502,11 +28502,11 @@
       </c>
       <c r="G23" s="54"/>
       <c r="H23" s="54"/>
-      <c r="I23" s="129" t="s">
+      <c r="I23" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="130"/>
-      <c r="K23" s="130"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
       <c r="L23" s="47"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
@@ -28516,16 +28516,16 @@
       <c r="F24" s="50"/>
       <c r="G24" s="54"/>
       <c r="H24" s="57"/>
-      <c r="I24" s="131" t="s">
+      <c r="I24" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="J24" s="132"/>
-      <c r="K24" s="132"/>
+      <c r="J24" s="119"/>
+      <c r="K24" s="119"/>
       <c r="L24" s="47"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="127"/>
-      <c r="D25" s="128"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="110"/>
       <c r="E25" s="54"/>
       <c r="F25" s="54"/>
       <c r="G25" s="54"/>
@@ -28537,153 +28537,153 @@
     </row>
     <row r="26" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C26" s="45"/>
-      <c r="D26" s="116" t="s">
+      <c r="D26" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="112"/>
       <c r="L26" s="47"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C27" s="45"/>
-      <c r="D27" s="133" t="s">
+      <c r="D27" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133" t="s">
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="133"/>
-      <c r="J27" s="133"/>
-      <c r="K27" s="133"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
       <c r="L27" s="47"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C28" s="45"/>
-      <c r="D28" s="123" t="s">
+      <c r="D28" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="134"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="124"/>
-      <c r="H28" s="123" t="s">
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="134"/>
-      <c r="J28" s="134"/>
-      <c r="K28" s="124"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="122"/>
+      <c r="K28" s="123"/>
       <c r="L28" s="47"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C29" s="45"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="136"/>
-      <c r="K29" s="137"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="124"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="125"/>
+      <c r="K29" s="126"/>
       <c r="L29" s="47"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C30" s="45"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="136"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="137"/>
-      <c r="H30" s="135"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="136"/>
-      <c r="K30" s="137"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="126"/>
       <c r="L30" s="47"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C31" s="45"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="126"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="138"/>
-      <c r="J31" s="138"/>
-      <c r="K31" s="126"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="129"/>
       <c r="L31" s="47"/>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C32" s="45"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="139"/>
-      <c r="K32" s="139"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="130"/>
+      <c r="K32" s="130"/>
       <c r="L32" s="47"/>
     </row>
     <row r="33" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C33" s="45"/>
-      <c r="D33" s="116" t="s">
+      <c r="D33" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="116"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="112"/>
       <c r="L33" s="47"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C34" s="45"/>
-      <c r="D34" s="140" t="s">
+      <c r="D34" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="140"/>
-      <c r="J34" s="140"/>
-      <c r="K34" s="140"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="131"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="131"/>
+      <c r="I34" s="131"/>
+      <c r="J34" s="131"/>
+      <c r="K34" s="131"/>
       <c r="L34" s="47"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C35" s="45"/>
-      <c r="D35" s="140"/>
-      <c r="E35" s="140"/>
-      <c r="F35" s="140"/>
-      <c r="G35" s="140"/>
-      <c r="H35" s="140"/>
-      <c r="I35" s="140"/>
-      <c r="J35" s="140"/>
-      <c r="K35" s="140"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="131"/>
+      <c r="K35" s="131"/>
       <c r="L35" s="47"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C36" s="45"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="140"/>
-      <c r="F36" s="140"/>
-      <c r="G36" s="140"/>
-      <c r="H36" s="140"/>
-      <c r="I36" s="140"/>
-      <c r="J36" s="140"/>
-      <c r="K36" s="140"/>
+      <c r="D36" s="131"/>
+      <c r="E36" s="131"/>
+      <c r="F36" s="131"/>
+      <c r="G36" s="131"/>
+      <c r="H36" s="131"/>
+      <c r="I36" s="131"/>
+      <c r="J36" s="131"/>
+      <c r="K36" s="131"/>
       <c r="L36" s="47"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C37" s="127"/>
-      <c r="D37" s="128"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="110"/>
       <c r="E37" s="58"/>
       <c r="F37" s="58"/>
       <c r="G37" s="58"/>
@@ -28695,16 +28695,16 @@
     </row>
     <row r="38" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C38" s="45"/>
-      <c r="D38" s="116" t="s">
+      <c r="D38" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="112"/>
+      <c r="H38" s="112"/>
+      <c r="I38" s="112"/>
+      <c r="J38" s="112"/>
+      <c r="K38" s="112"/>
       <c r="L38" s="47"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.35">
@@ -28712,14 +28712,14 @@
       <c r="D39" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="E39" s="117" t="s">
+      <c r="E39" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="F39" s="118"/>
-      <c r="G39" s="117" t="s">
+      <c r="F39" s="133"/>
+      <c r="G39" s="132" t="s">
         <v>69</v>
       </c>
-      <c r="H39" s="118"/>
+      <c r="H39" s="133"/>
       <c r="I39" s="52" t="s">
         <v>70</v>
       </c>
@@ -28731,102 +28731,102 @@
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C40" s="45"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="119"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="123"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="104"/>
+      <c r="D40" s="134"/>
+      <c r="E40" s="136"/>
+      <c r="F40" s="137"/>
+      <c r="G40" s="140"/>
+      <c r="H40" s="141"/>
+      <c r="I40" s="121"/>
+      <c r="J40" s="123"/>
+      <c r="K40" s="134"/>
       <c r="L40" s="47"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C41" s="45"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="113"/>
-      <c r="G41" s="121"/>
-      <c r="H41" s="122"/>
-      <c r="I41" s="125"/>
-      <c r="J41" s="126"/>
-      <c r="K41" s="105"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="138"/>
+      <c r="F41" s="139"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="143"/>
+      <c r="I41" s="127"/>
+      <c r="J41" s="129"/>
+      <c r="K41" s="135"/>
       <c r="L41" s="47"/>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C42" s="45"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="106"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="106"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="106"/>
-      <c r="J42" s="107"/>
-      <c r="K42" s="114"/>
+      <c r="D42" s="134"/>
+      <c r="E42" s="144"/>
+      <c r="F42" s="145"/>
+      <c r="G42" s="144"/>
+      <c r="H42" s="145"/>
+      <c r="I42" s="144"/>
+      <c r="J42" s="145"/>
+      <c r="K42" s="148"/>
       <c r="L42" s="47"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C43" s="45"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="108"/>
-      <c r="F43" s="109"/>
-      <c r="G43" s="108"/>
-      <c r="H43" s="109"/>
-      <c r="I43" s="108"/>
-      <c r="J43" s="109"/>
-      <c r="K43" s="115"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="146"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="146"/>
+      <c r="H43" s="147"/>
+      <c r="I43" s="146"/>
+      <c r="J43" s="147"/>
+      <c r="K43" s="149"/>
       <c r="L43" s="47"/>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C44" s="45"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="106"/>
-      <c r="H44" s="107"/>
-      <c r="I44" s="106"/>
-      <c r="J44" s="107"/>
-      <c r="K44" s="114"/>
+      <c r="D44" s="134"/>
+      <c r="E44" s="144"/>
+      <c r="F44" s="145"/>
+      <c r="G44" s="144"/>
+      <c r="H44" s="145"/>
+      <c r="I44" s="144"/>
+      <c r="J44" s="145"/>
+      <c r="K44" s="148"/>
       <c r="L44" s="47"/>
     </row>
     <row r="45" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C45" s="45"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="109"/>
-      <c r="G45" s="108"/>
-      <c r="H45" s="109"/>
-      <c r="I45" s="108"/>
-      <c r="J45" s="109"/>
-      <c r="K45" s="115"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="146"/>
+      <c r="F45" s="147"/>
+      <c r="G45" s="146"/>
+      <c r="H45" s="147"/>
+      <c r="I45" s="146"/>
+      <c r="J45" s="147"/>
+      <c r="K45" s="149"/>
       <c r="L45" s="47"/>
     </row>
     <row r="46" spans="3:12" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C46" s="45"/>
-      <c r="D46" s="104"/>
-      <c r="E46" s="106"/>
-      <c r="F46" s="107"/>
-      <c r="G46" s="106"/>
-      <c r="H46" s="107"/>
-      <c r="I46" s="110"/>
-      <c r="J46" s="111"/>
-      <c r="K46" s="114"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="145"/>
+      <c r="G46" s="144"/>
+      <c r="H46" s="145"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="137"/>
+      <c r="K46" s="148"/>
       <c r="L46" s="47"/>
     </row>
     <row r="47" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C47" s="45"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="109"/>
-      <c r="G47" s="108"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="112"/>
-      <c r="J47" s="113"/>
-      <c r="K47" s="115"/>
-      <c r="L47" s="100"/>
+      <c r="D47" s="135"/>
+      <c r="E47" s="146"/>
+      <c r="F47" s="147"/>
+      <c r="G47" s="146"/>
+      <c r="H47" s="147"/>
+      <c r="I47" s="138"/>
+      <c r="J47" s="139"/>
+      <c r="K47" s="149"/>
+      <c r="L47" s="150"/>
     </row>
     <row r="48" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C48" s="102"/>
+      <c r="C48" s="152"/>
       <c r="D48" s="54"/>
       <c r="E48" s="54"/>
       <c r="F48" s="54"/>
@@ -28835,10 +28835,10 @@
       <c r="I48" s="54"/>
       <c r="J48" s="54"/>
       <c r="K48" s="54"/>
-      <c r="L48" s="100"/>
+      <c r="L48" s="150"/>
     </row>
     <row r="49" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C49" s="102"/>
+      <c r="C49" s="152"/>
       <c r="D49" s="54"/>
       <c r="E49" s="54"/>
       <c r="F49" s="54"/>
@@ -28847,10 +28847,10 @@
       <c r="I49" s="54"/>
       <c r="J49" s="54"/>
       <c r="K49" s="54"/>
-      <c r="L49" s="100"/>
+      <c r="L49" s="150"/>
     </row>
     <row r="50" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="103"/>
+      <c r="C50" s="153"/>
       <c r="D50" s="53"/>
       <c r="E50" s="53"/>
       <c r="F50" s="53"/>
@@ -28859,22 +28859,37 @@
       <c r="I50" s="53"/>
       <c r="J50" s="53"/>
       <c r="K50" s="53"/>
-      <c r="L50" s="101"/>
+      <c r="L50" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="D12:K15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="L47:L50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:H47"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:H43"/>
+    <mergeCell ref="I42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:H45"/>
+    <mergeCell ref="I44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="D38:K38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G40:H41"/>
+    <mergeCell ref="I40:J41"/>
+    <mergeCell ref="K40:K41"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="I23:K23"/>
@@ -28888,33 +28903,18 @@
     <mergeCell ref="D32:K32"/>
     <mergeCell ref="D33:K33"/>
     <mergeCell ref="D34:K36"/>
-    <mergeCell ref="D38:K38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G40:H41"/>
-    <mergeCell ref="I40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:H45"/>
-    <mergeCell ref="I44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:H43"/>
-    <mergeCell ref="I42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L47:L50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:H47"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="D12:K15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testing/SprintI/TestPlanS.xlsx
+++ b/Testing/SprintI/TestPlanS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yohana Zapata\OneDrive\Desktop\DIGH\ESPECIALIZACION BACK\PI\Testing\SprintI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yohana Zapata\OneDrive\Desktop\DIGH\ESPECIALIZACION BACK\PI\ecommerce-equipo4\Testing\SprintI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8EC41E-E39D-4A62-AD9B-594C51C859D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C31E5D7-23A6-41C9-BCCC-2C05381FE644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{EF7542FF-657D-473E-8093-CC42149EF0AF}"/>
   </bookViews>
@@ -832,9 +832,6 @@
 El sistema debe cumplir con los objetivos del UX/UI</t>
   </si>
   <si>
-    <t>los campos de nombre, apellido, la dirección de correo electrónico y contraseña del usuario cumplan con reglas para prevenir errores en los datos proporcionados.</t>
-  </si>
-  <si>
     <t>experiencia de usuario intuitiva y fácil de usar durante el proceso de registro.</t>
   </si>
   <si>
@@ -881,6 +878,9 @@
   </si>
   <si>
     <t>Se visualiza el texto " Ver mas"</t>
+  </si>
+  <si>
+    <t>los campos de nombre, apellido, la dirección de correo electrónico y contraseña del usuario cumplan con reglas para prevenir errores en los datos proporcionados</t>
   </si>
 </sst>
 </file>
@@ -1813,24 +1813,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1843,10 +1825,22 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1856,6 +1850,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1885,125 +1888,6 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2022,8 +1906,13 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2034,8 +1923,119 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2355,7 +2355,7 @@
   <dimension ref="A1:R1523"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="E21" sqref="E21:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2456,552 +2456,552 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="81" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="85" t="s">
         <v>210</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81" t="s">
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85" t="s">
         <v>211</v>
       </c>
-      <c r="H7" s="81" t="s">
+      <c r="H7" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="81" t="s">
+      <c r="I7" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="81" t="s">
+      <c r="J7" s="85" t="s">
         <v>213</v>
       </c>
-      <c r="K7" s="81" t="s">
+      <c r="K7" s="85" t="s">
         <v>212</v>
       </c>
-      <c r="L7" s="81" t="s">
+      <c r="L7" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="81" t="s">
+      <c r="M7" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="86" t="s">
+      <c r="N7" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="80"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="87"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="84"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="80"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="87"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="84"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="80"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="87"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="84"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="80"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="87"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="84"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="80"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="87"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="84"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="80"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="87"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="84"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="80"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="82" t="s">
+      <c r="A14" s="91"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="76" t="s">
+        <v>230</v>
+      </c>
+      <c r="E14" s="77"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76" t="s">
+        <v>215</v>
+      </c>
+      <c r="H14" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="76" t="s">
+        <v>216</v>
+      </c>
+      <c r="K14" s="76" t="s">
+        <v>217</v>
+      </c>
+      <c r="L14" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="84" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="91"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="84"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="91"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="84"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="91"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="84"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="91"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="84"/>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="91"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="84"/>
+    </row>
+    <row r="20" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="91"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="84"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="91"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="76" t="s">
         <v>214</v>
       </c>
-      <c r="E14" s="83"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82" t="s">
-        <v>216</v>
-      </c>
-      <c r="H14" s="82" t="s">
+      <c r="E21" s="77"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76" t="s">
+        <v>218</v>
+      </c>
+      <c r="H21" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="82" t="s">
+      <c r="I21" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="82" t="s">
-        <v>217</v>
-      </c>
-      <c r="K14" s="82" t="s">
-        <v>218</v>
-      </c>
-      <c r="L14" s="82" t="s">
+      <c r="J21" s="76" t="s">
+        <v>219</v>
+      </c>
+      <c r="K21" s="76" t="s">
+        <v>220</v>
+      </c>
+      <c r="L21" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="82" t="s">
+      <c r="M21" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="87" t="s">
+      <c r="N21" s="84" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="80"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="87"/>
-    </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="80"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="87"/>
-    </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="80"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="87"/>
-    </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="80"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="87"/>
-    </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="80"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="87"/>
-    </row>
-    <row r="20" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="80"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="87"/>
-    </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="80"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="82" t="s">
-        <v>215</v>
-      </c>
-      <c r="E21" s="83"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82" t="s">
-        <v>219</v>
-      </c>
-      <c r="H21" s="82" t="s">
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="91"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="84"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="91"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="84"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="91"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="84"/>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="91"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="84"/>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="91"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="84"/>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="91"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="84"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="91"/>
+      <c r="B28" s="89" t="s">
+        <v>221</v>
+      </c>
+      <c r="C28" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="80" t="s">
+        <v>222</v>
+      </c>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80" t="s">
+        <v>224</v>
+      </c>
+      <c r="H28" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="82" t="s">
+      <c r="I28" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="82" t="s">
-        <v>220</v>
-      </c>
-      <c r="K21" s="82" t="s">
-        <v>221</v>
-      </c>
-      <c r="L21" s="82" t="s">
+      <c r="J28" s="80" t="s">
+        <v>225</v>
+      </c>
+      <c r="K28" s="80" t="s">
+        <v>226</v>
+      </c>
+      <c r="L28" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="82" t="s">
+      <c r="M28" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="N21" s="87" t="s">
+      <c r="N28" s="86" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="80"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="87"/>
-    </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="80"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="87"/>
-    </row>
-    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="80"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="87"/>
-    </row>
-    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="80"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="87"/>
-    </row>
-    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="80"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="87"/>
-    </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="80"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="87"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="80"/>
-      <c r="B28" s="153" t="s">
-        <v>222</v>
-      </c>
-      <c r="C28" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="76" t="s">
-        <v>223</v>
-      </c>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76" t="s">
-        <v>225</v>
-      </c>
-      <c r="H28" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="76" t="s">
-        <v>226</v>
-      </c>
-      <c r="K28" s="76" t="s">
-        <v>227</v>
-      </c>
-      <c r="L28" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="N28" s="88" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="80"/>
-      <c r="B29" s="153"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="89"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="87"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="80"/>
-      <c r="B30" s="153"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="89"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="87"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="80"/>
-      <c r="B31" s="153"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="89"/>
+      <c r="A31" s="91"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="87"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="80"/>
-      <c r="B32" s="153"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="89"/>
+      <c r="A32" s="91"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="87"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A33" s="80"/>
-      <c r="B33" s="153"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="89"/>
+      <c r="A33" s="91"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="87"/>
     </row>
     <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="80"/>
-      <c r="B34" s="153"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="90"/>
+      <c r="A34" s="91"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="88"/>
     </row>
     <row r="35" spans="1:18" ht="78.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="80"/>
-      <c r="B35" s="153"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="89"/>
       <c r="C35" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>22</v>
@@ -3010,10 +3010,10 @@
         <v>23</v>
       </c>
       <c r="J35" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="K35" s="10" t="s">
         <v>229</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>230</v>
       </c>
       <c r="L35" s="10" t="s">
         <v>24</v>
@@ -26831,38 +26831,17 @@
   </sheetData>
   <autoFilter ref="A6:AF51" xr:uid="{1550FB1C-F240-400E-8D6A-47EBB90EFC8A}"/>
   <mergeCells count="51">
-    <mergeCell ref="I21:I27"/>
-    <mergeCell ref="J21:J27"/>
-    <mergeCell ref="K21:K27"/>
-    <mergeCell ref="L21:L27"/>
-    <mergeCell ref="M21:M27"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="F21:F27"/>
-    <mergeCell ref="G21:G27"/>
-    <mergeCell ref="H21:H27"/>
-    <mergeCell ref="H28:H34"/>
-    <mergeCell ref="I28:I34"/>
-    <mergeCell ref="J28:J34"/>
-    <mergeCell ref="K28:K34"/>
-    <mergeCell ref="L28:L34"/>
-    <mergeCell ref="N7:N13"/>
-    <mergeCell ref="M14:M20"/>
-    <mergeCell ref="N14:N20"/>
-    <mergeCell ref="M7:M13"/>
-    <mergeCell ref="M28:M34"/>
-    <mergeCell ref="N28:N34"/>
-    <mergeCell ref="N21:N27"/>
-    <mergeCell ref="H14:H20"/>
-    <mergeCell ref="I14:I20"/>
-    <mergeCell ref="J14:J20"/>
-    <mergeCell ref="K14:K20"/>
-    <mergeCell ref="L14:L20"/>
-    <mergeCell ref="H7:H13"/>
-    <mergeCell ref="I7:I13"/>
-    <mergeCell ref="J7:J13"/>
-    <mergeCell ref="K7:K13"/>
-    <mergeCell ref="L7:L13"/>
+    <mergeCell ref="B7:B27"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="A7:A35"/>
+    <mergeCell ref="D28:D34"/>
+    <mergeCell ref="E28:E34"/>
+    <mergeCell ref="F28:F34"/>
+    <mergeCell ref="G28:G34"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="C21:C27"/>
     <mergeCell ref="D7:D13"/>
     <mergeCell ref="E7:E13"/>
     <mergeCell ref="F7:F13"/>
@@ -26871,17 +26850,38 @@
     <mergeCell ref="E14:E20"/>
     <mergeCell ref="F14:F20"/>
     <mergeCell ref="G14:G20"/>
-    <mergeCell ref="D28:D34"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="F28:F34"/>
-    <mergeCell ref="G28:G34"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="C14:C20"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="B7:B27"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="A7:A35"/>
+    <mergeCell ref="H7:H13"/>
+    <mergeCell ref="I7:I13"/>
+    <mergeCell ref="J7:J13"/>
+    <mergeCell ref="K7:K13"/>
+    <mergeCell ref="L7:L13"/>
+    <mergeCell ref="H14:H20"/>
+    <mergeCell ref="I14:I20"/>
+    <mergeCell ref="J14:J20"/>
+    <mergeCell ref="K14:K20"/>
+    <mergeCell ref="L14:L20"/>
+    <mergeCell ref="N7:N13"/>
+    <mergeCell ref="M14:M20"/>
+    <mergeCell ref="N14:N20"/>
+    <mergeCell ref="M7:M13"/>
+    <mergeCell ref="M28:M34"/>
+    <mergeCell ref="N28:N34"/>
+    <mergeCell ref="N21:N27"/>
+    <mergeCell ref="H28:H34"/>
+    <mergeCell ref="I28:I34"/>
+    <mergeCell ref="J28:J34"/>
+    <mergeCell ref="K28:K34"/>
+    <mergeCell ref="L28:L34"/>
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="F21:F27"/>
+    <mergeCell ref="G21:G27"/>
+    <mergeCell ref="H21:H27"/>
+    <mergeCell ref="I21:I27"/>
+    <mergeCell ref="J21:J27"/>
+    <mergeCell ref="K21:K27"/>
+    <mergeCell ref="L21:L27"/>
+    <mergeCell ref="M21:M27"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
@@ -27006,10 +27006,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="112.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="95" t="s">
         <v>72</v>
       </c>
       <c r="C7" s="65" t="s">
@@ -27048,8 +27048,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="112.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="98"/>
-      <c r="B8" s="95"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="65" t="s">
         <v>102</v>
       </c>
@@ -27086,8 +27086,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="112.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="98"/>
-      <c r="B9" s="95"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="65" t="s">
         <v>103</v>
       </c>
@@ -27124,8 +27124,8 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="112.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="98"/>
-      <c r="B10" s="95"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="65" t="s">
         <v>104</v>
       </c>
@@ -27162,8 +27162,8 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="112.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="98"/>
-      <c r="B11" s="95"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="65" t="s">
         <v>105</v>
       </c>
@@ -27200,8 +27200,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="112.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="98"/>
-      <c r="B12" s="95"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="65" t="s">
         <v>106</v>
       </c>
@@ -27238,8 +27238,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="100" x14ac:dyDescent="0.35">
-      <c r="A13" s="98"/>
-      <c r="B13" s="95"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="65" t="s">
         <v>107</v>
       </c>
@@ -27274,8 +27274,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="126.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="98"/>
-      <c r="B14" s="96"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="65" t="s">
         <v>108</v>
       </c>
@@ -27312,8 +27312,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="137.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="98"/>
-      <c r="B15" s="94" t="s">
+      <c r="A15" s="99"/>
+      <c r="B15" s="95" t="s">
         <v>109</v>
       </c>
       <c r="C15" s="65" t="s">
@@ -27354,8 +27354,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="98"/>
-      <c r="B16" s="95"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="65" t="s">
         <v>139</v>
       </c>
@@ -27394,8 +27394,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="98"/>
-      <c r="B17" s="95"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="65" t="s">
         <v>140</v>
       </c>
@@ -27434,8 +27434,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="98"/>
-      <c r="B18" s="95"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="65" t="s">
         <v>141</v>
       </c>
@@ -27474,8 +27474,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="91" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="98"/>
-      <c r="B19" s="95"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="65" t="s">
         <v>142</v>
       </c>
@@ -27514,8 +27514,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="100" x14ac:dyDescent="0.35">
-      <c r="A20" s="98"/>
-      <c r="B20" s="95"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="65" t="s">
         <v>143</v>
       </c>
@@ -27550,8 +27550,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="195" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="98"/>
-      <c r="B21" s="96"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="97"/>
       <c r="C21" s="65" t="s">
         <v>144</v>
       </c>
@@ -27588,7 +27588,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="91" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="98"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="66" t="s">
         <v>145</v>
       </c>
@@ -27630,8 +27630,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="99"/>
-      <c r="B23" s="94" t="s">
+      <c r="A23" s="100"/>
+      <c r="B23" s="95" t="s">
         <v>156</v>
       </c>
       <c r="C23" s="66" t="s">
@@ -27672,10 +27672,10 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="169" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="91" t="s">
+      <c r="A24" s="92" t="s">
         <v>207</v>
       </c>
-      <c r="B24" s="96"/>
+      <c r="B24" s="97"/>
       <c r="C24" s="66" t="s">
         <v>148</v>
       </c>
@@ -27714,7 +27714,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="351" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="92"/>
+      <c r="A25" s="93"/>
       <c r="B25" s="66" t="s">
         <v>167</v>
       </c>
@@ -27756,7 +27756,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="75" x14ac:dyDescent="0.35">
-      <c r="A26" s="93"/>
+      <c r="A26" s="94"/>
       <c r="B26" s="66" t="s">
         <v>173</v>
       </c>
@@ -28212,8 +28212,8 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
       <c r="E2" s="43"/>
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
@@ -28224,22 +28224,22 @@
       <c r="L2" s="43"/>
     </row>
     <row r="3" spans="3:12" ht="24" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="146"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="106"/>
     </row>
     <row r="4" spans="3:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="147"/>
-      <c r="D4" s="148"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="55"/>
       <c r="F4" s="55"/>
       <c r="G4" s="55"/>
@@ -28276,8 +28276,8 @@
       <c r="L6" s="47"/>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C7" s="127"/>
-      <c r="D7" s="128"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="110"/>
       <c r="E7" s="54"/>
       <c r="F7" s="54"/>
       <c r="G7" s="54"/>
@@ -28305,19 +28305,19 @@
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C9" s="45"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="149"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
       <c r="J9" s="43"/>
       <c r="K9" s="49"/>
       <c r="L9" s="47"/>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C10" s="127"/>
-      <c r="D10" s="128"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="110"/>
       <c r="E10" s="54"/>
       <c r="F10" s="54"/>
       <c r="G10" s="54"/>
@@ -28329,71 +28329,71 @@
     </row>
     <row r="11" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C11" s="45"/>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
       <c r="L11" s="47"/>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C12" s="45"/>
-      <c r="D12" s="150" t="s">
+      <c r="D12" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="150"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
       <c r="L12" s="47"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C13" s="45"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="150"/>
-      <c r="I13" s="150"/>
-      <c r="J13" s="150"/>
-      <c r="K13" s="150"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
       <c r="L13" s="47"/>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C14" s="45"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="150"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="150"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
       <c r="L14" s="47"/>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C15" s="45"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="150"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="150"/>
-      <c r="K15" s="150"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
       <c r="L15" s="47"/>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C16" s="127"/>
-      <c r="D16" s="128"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="110"/>
       <c r="E16" s="54"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
@@ -28423,11 +28423,11 @@
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C18" s="45"/>
-      <c r="D18" s="151" t="s">
+      <c r="D18" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
       <c r="G18" s="54"/>
       <c r="H18" s="57"/>
       <c r="I18" s="50"/>
@@ -28436,8 +28436,8 @@
       <c r="L18" s="47"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="127"/>
-      <c r="D19" s="128"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="110"/>
       <c r="E19" s="54"/>
       <c r="F19" s="54"/>
       <c r="G19" s="54"/>
@@ -28467,11 +28467,11 @@
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C21" s="45"/>
-      <c r="D21" s="141" t="s">
+      <c r="D21" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
       <c r="G21" s="54"/>
       <c r="H21" s="57"/>
       <c r="I21" s="50"/>
@@ -28480,8 +28480,8 @@
       <c r="L21" s="47"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="127"/>
-      <c r="D22" s="128"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="110"/>
       <c r="E22" s="54"/>
       <c r="F22" s="54"/>
       <c r="G22" s="54"/>
@@ -28502,11 +28502,11 @@
       </c>
       <c r="G23" s="54"/>
       <c r="H23" s="54"/>
-      <c r="I23" s="129" t="s">
+      <c r="I23" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="130"/>
-      <c r="K23" s="130"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
       <c r="L23" s="47"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.35">
@@ -28516,16 +28516,16 @@
       <c r="F24" s="50"/>
       <c r="G24" s="54"/>
       <c r="H24" s="57"/>
-      <c r="I24" s="131" t="s">
+      <c r="I24" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="J24" s="132"/>
-      <c r="K24" s="132"/>
+      <c r="J24" s="119"/>
+      <c r="K24" s="119"/>
       <c r="L24" s="47"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="127"/>
-      <c r="D25" s="128"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="110"/>
       <c r="E25" s="54"/>
       <c r="F25" s="54"/>
       <c r="G25" s="54"/>
@@ -28537,153 +28537,153 @@
     </row>
     <row r="26" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C26" s="45"/>
-      <c r="D26" s="116" t="s">
+      <c r="D26" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="112"/>
       <c r="L26" s="47"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C27" s="45"/>
-      <c r="D27" s="133" t="s">
+      <c r="D27" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133" t="s">
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="133"/>
-      <c r="J27" s="133"/>
-      <c r="K27" s="133"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
       <c r="L27" s="47"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C28" s="45"/>
-      <c r="D28" s="123" t="s">
+      <c r="D28" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="134"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="124"/>
-      <c r="H28" s="123" t="s">
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="134"/>
-      <c r="J28" s="134"/>
-      <c r="K28" s="124"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="122"/>
+      <c r="K28" s="123"/>
       <c r="L28" s="47"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C29" s="45"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="136"/>
-      <c r="K29" s="137"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="124"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="125"/>
+      <c r="K29" s="126"/>
       <c r="L29" s="47"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C30" s="45"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="136"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="137"/>
-      <c r="H30" s="135"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="136"/>
-      <c r="K30" s="137"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="126"/>
       <c r="L30" s="47"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C31" s="45"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="126"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="138"/>
-      <c r="J31" s="138"/>
-      <c r="K31" s="126"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="129"/>
       <c r="L31" s="47"/>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C32" s="45"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="139"/>
-      <c r="K32" s="139"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="130"/>
+      <c r="K32" s="130"/>
       <c r="L32" s="47"/>
     </row>
     <row r="33" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C33" s="45"/>
-      <c r="D33" s="116" t="s">
+      <c r="D33" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="116"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="112"/>
       <c r="L33" s="47"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C34" s="45"/>
-      <c r="D34" s="140" t="s">
+      <c r="D34" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="140"/>
-      <c r="J34" s="140"/>
-      <c r="K34" s="140"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="131"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="131"/>
+      <c r="I34" s="131"/>
+      <c r="J34" s="131"/>
+      <c r="K34" s="131"/>
       <c r="L34" s="47"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C35" s="45"/>
-      <c r="D35" s="140"/>
-      <c r="E35" s="140"/>
-      <c r="F35" s="140"/>
-      <c r="G35" s="140"/>
-      <c r="H35" s="140"/>
-      <c r="I35" s="140"/>
-      <c r="J35" s="140"/>
-      <c r="K35" s="140"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="131"/>
+      <c r="K35" s="131"/>
       <c r="L35" s="47"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C36" s="45"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="140"/>
-      <c r="F36" s="140"/>
-      <c r="G36" s="140"/>
-      <c r="H36" s="140"/>
-      <c r="I36" s="140"/>
-      <c r="J36" s="140"/>
-      <c r="K36" s="140"/>
+      <c r="D36" s="131"/>
+      <c r="E36" s="131"/>
+      <c r="F36" s="131"/>
+      <c r="G36" s="131"/>
+      <c r="H36" s="131"/>
+      <c r="I36" s="131"/>
+      <c r="J36" s="131"/>
+      <c r="K36" s="131"/>
       <c r="L36" s="47"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C37" s="127"/>
-      <c r="D37" s="128"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="110"/>
       <c r="E37" s="58"/>
       <c r="F37" s="58"/>
       <c r="G37" s="58"/>
@@ -28695,16 +28695,16 @@
     </row>
     <row r="38" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C38" s="45"/>
-      <c r="D38" s="116" t="s">
+      <c r="D38" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="112"/>
+      <c r="H38" s="112"/>
+      <c r="I38" s="112"/>
+      <c r="J38" s="112"/>
+      <c r="K38" s="112"/>
       <c r="L38" s="47"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.35">
@@ -28712,14 +28712,14 @@
       <c r="D39" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="E39" s="117" t="s">
+      <c r="E39" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="F39" s="118"/>
-      <c r="G39" s="117" t="s">
+      <c r="F39" s="133"/>
+      <c r="G39" s="132" t="s">
         <v>69</v>
       </c>
-      <c r="H39" s="118"/>
+      <c r="H39" s="133"/>
       <c r="I39" s="52" t="s">
         <v>70</v>
       </c>
@@ -28731,102 +28731,102 @@
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C40" s="45"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="119"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="123"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="104"/>
+      <c r="D40" s="134"/>
+      <c r="E40" s="136"/>
+      <c r="F40" s="137"/>
+      <c r="G40" s="140"/>
+      <c r="H40" s="141"/>
+      <c r="I40" s="121"/>
+      <c r="J40" s="123"/>
+      <c r="K40" s="134"/>
       <c r="L40" s="47"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C41" s="45"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="113"/>
-      <c r="G41" s="121"/>
-      <c r="H41" s="122"/>
-      <c r="I41" s="125"/>
-      <c r="J41" s="126"/>
-      <c r="K41" s="105"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="138"/>
+      <c r="F41" s="139"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="143"/>
+      <c r="I41" s="127"/>
+      <c r="J41" s="129"/>
+      <c r="K41" s="135"/>
       <c r="L41" s="47"/>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C42" s="45"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="106"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="106"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="106"/>
-      <c r="J42" s="107"/>
-      <c r="K42" s="114"/>
+      <c r="D42" s="134"/>
+      <c r="E42" s="144"/>
+      <c r="F42" s="145"/>
+      <c r="G42" s="144"/>
+      <c r="H42" s="145"/>
+      <c r="I42" s="144"/>
+      <c r="J42" s="145"/>
+      <c r="K42" s="148"/>
       <c r="L42" s="47"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C43" s="45"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="108"/>
-      <c r="F43" s="109"/>
-      <c r="G43" s="108"/>
-      <c r="H43" s="109"/>
-      <c r="I43" s="108"/>
-      <c r="J43" s="109"/>
-      <c r="K43" s="115"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="146"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="146"/>
+      <c r="H43" s="147"/>
+      <c r="I43" s="146"/>
+      <c r="J43" s="147"/>
+      <c r="K43" s="149"/>
       <c r="L43" s="47"/>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C44" s="45"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="106"/>
-      <c r="H44" s="107"/>
-      <c r="I44" s="106"/>
-      <c r="J44" s="107"/>
-      <c r="K44" s="114"/>
+      <c r="D44" s="134"/>
+      <c r="E44" s="144"/>
+      <c r="F44" s="145"/>
+      <c r="G44" s="144"/>
+      <c r="H44" s="145"/>
+      <c r="I44" s="144"/>
+      <c r="J44" s="145"/>
+      <c r="K44" s="148"/>
       <c r="L44" s="47"/>
     </row>
     <row r="45" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C45" s="45"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="109"/>
-      <c r="G45" s="108"/>
-      <c r="H45" s="109"/>
-      <c r="I45" s="108"/>
-      <c r="J45" s="109"/>
-      <c r="K45" s="115"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="146"/>
+      <c r="F45" s="147"/>
+      <c r="G45" s="146"/>
+      <c r="H45" s="147"/>
+      <c r="I45" s="146"/>
+      <c r="J45" s="147"/>
+      <c r="K45" s="149"/>
       <c r="L45" s="47"/>
     </row>
     <row r="46" spans="3:12" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C46" s="45"/>
-      <c r="D46" s="104"/>
-      <c r="E46" s="106"/>
-      <c r="F46" s="107"/>
-      <c r="G46" s="106"/>
-      <c r="H46" s="107"/>
-      <c r="I46" s="110"/>
-      <c r="J46" s="111"/>
-      <c r="K46" s="114"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="145"/>
+      <c r="G46" s="144"/>
+      <c r="H46" s="145"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="137"/>
+      <c r="K46" s="148"/>
       <c r="L46" s="47"/>
     </row>
     <row r="47" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C47" s="45"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="109"/>
-      <c r="G47" s="108"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="112"/>
-      <c r="J47" s="113"/>
-      <c r="K47" s="115"/>
-      <c r="L47" s="100"/>
+      <c r="D47" s="135"/>
+      <c r="E47" s="146"/>
+      <c r="F47" s="147"/>
+      <c r="G47" s="146"/>
+      <c r="H47" s="147"/>
+      <c r="I47" s="138"/>
+      <c r="J47" s="139"/>
+      <c r="K47" s="149"/>
+      <c r="L47" s="150"/>
     </row>
     <row r="48" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C48" s="102"/>
+      <c r="C48" s="152"/>
       <c r="D48" s="54"/>
       <c r="E48" s="54"/>
       <c r="F48" s="54"/>
@@ -28835,10 +28835,10 @@
       <c r="I48" s="54"/>
       <c r="J48" s="54"/>
       <c r="K48" s="54"/>
-      <c r="L48" s="100"/>
+      <c r="L48" s="150"/>
     </row>
     <row r="49" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C49" s="102"/>
+      <c r="C49" s="152"/>
       <c r="D49" s="54"/>
       <c r="E49" s="54"/>
       <c r="F49" s="54"/>
@@ -28847,10 +28847,10 @@
       <c r="I49" s="54"/>
       <c r="J49" s="54"/>
       <c r="K49" s="54"/>
-      <c r="L49" s="100"/>
+      <c r="L49" s="150"/>
     </row>
     <row r="50" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="103"/>
+      <c r="C50" s="153"/>
       <c r="D50" s="53"/>
       <c r="E50" s="53"/>
       <c r="F50" s="53"/>
@@ -28859,22 +28859,37 @@
       <c r="I50" s="53"/>
       <c r="J50" s="53"/>
       <c r="K50" s="53"/>
-      <c r="L50" s="101"/>
+      <c r="L50" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="D12:K15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="L47:L50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:H47"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:H43"/>
+    <mergeCell ref="I42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:H45"/>
+    <mergeCell ref="I44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="D38:K38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G40:H41"/>
+    <mergeCell ref="I40:J41"/>
+    <mergeCell ref="K40:K41"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="I23:K23"/>
@@ -28888,33 +28903,18 @@
     <mergeCell ref="D32:K32"/>
     <mergeCell ref="D33:K33"/>
     <mergeCell ref="D34:K36"/>
-    <mergeCell ref="D38:K38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G40:H41"/>
-    <mergeCell ref="I40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:H45"/>
-    <mergeCell ref="I44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:H43"/>
-    <mergeCell ref="I42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L47:L50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:H47"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="D12:K15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
